--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H2">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N2">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q2">
-        <v>3.368323642933778</v>
+        <v>0.8943901012840001</v>
       </c>
       <c r="R2">
-        <v>30.314912786404</v>
+        <v>8.049510911556002</v>
       </c>
       <c r="S2">
-        <v>0.007217331878058654</v>
+        <v>0.008888458689591145</v>
       </c>
       <c r="T2">
-        <v>0.007217331878058654</v>
+        <v>0.008888458689591143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H3">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I3">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J3">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.048275</v>
       </c>
       <c r="O3">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P3">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q3">
-        <v>0.02953302510555556</v>
+        <v>0.01521824318333334</v>
       </c>
       <c r="R3">
-        <v>0.26579722595</v>
+        <v>0.13696418865</v>
       </c>
       <c r="S3">
-        <v>6.328063041002241E-05</v>
+        <v>0.000151239068577592</v>
       </c>
       <c r="T3">
-        <v>6.328063041002239E-05</v>
+        <v>0.000151239068577592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H4">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I4">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J4">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N4">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O4">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P4">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q4">
-        <v>9.950568419420891</v>
+        <v>0.466744070104</v>
       </c>
       <c r="R4">
-        <v>89.55511577478802</v>
+        <v>4.200696630936</v>
       </c>
       <c r="S4">
-        <v>0.02132115624012263</v>
+        <v>0.004638507715788886</v>
       </c>
       <c r="T4">
-        <v>0.02132115624012263</v>
+        <v>0.004638507715788884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H5">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I5">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J5">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N5">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O5">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P5">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q5">
-        <v>7.036303949218222</v>
+        <v>3.715457390918667</v>
       </c>
       <c r="R5">
-        <v>63.326735542964</v>
+        <v>33.439116518268</v>
       </c>
       <c r="S5">
-        <v>0.01507674029570712</v>
+        <v>0.03692425652375391</v>
       </c>
       <c r="T5">
-        <v>0.01507674029570712</v>
+        <v>0.0369242565237539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H6">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I6">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J6">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N6">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O6">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P6">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q6">
-        <v>2.080390712204666</v>
+        <v>0.7245674322253334</v>
       </c>
       <c r="R6">
-        <v>18.723516409842</v>
+        <v>6.521106890028001</v>
       </c>
       <c r="S6">
-        <v>0.004457668501514325</v>
+        <v>0.007200759131739307</v>
       </c>
       <c r="T6">
-        <v>0.004457668501514325</v>
+        <v>0.007200759131739305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H7">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I7">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J7">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N7">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O7">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P7">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q7">
-        <v>17.18326285616756</v>
+        <v>3.670291914883333</v>
       </c>
       <c r="R7">
-        <v>154.649365705508</v>
+        <v>33.03262723395</v>
       </c>
       <c r="S7">
-        <v>0.03681870387991024</v>
+        <v>0.03647540152484521</v>
       </c>
       <c r="T7">
-        <v>0.03681870387991024</v>
+        <v>0.03647540152484521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.048275</v>
       </c>
       <c r="I8">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J8">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N8">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O8">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P8">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q8">
-        <v>0.02953302510555556</v>
+        <v>0.01521824318333334</v>
       </c>
       <c r="R8">
-        <v>0.26579722595</v>
+        <v>0.13696418865</v>
       </c>
       <c r="S8">
-        <v>6.328063041002241E-05</v>
+        <v>0.000151239068577592</v>
       </c>
       <c r="T8">
-        <v>6.328063041002239E-05</v>
+        <v>0.000151239068577592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.048275</v>
       </c>
       <c r="I9">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J9">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,10 +998,10 @@
         <v>0.048275</v>
       </c>
       <c r="O9">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P9">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q9">
         <v>0.0002589417361111111</v>
@@ -1010,10 +1010,10 @@
         <v>0.002330475625</v>
       </c>
       <c r="S9">
-        <v>5.548363651204276E-07</v>
+        <v>2.573365828993882E-06</v>
       </c>
       <c r="T9">
-        <v>5.548363651204274E-07</v>
+        <v>2.57336582899388E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.048275</v>
       </c>
       <c r="I10">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J10">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N10">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O10">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P10">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q10">
-        <v>0.0872452941277778</v>
+        <v>0.007941752433333334</v>
       </c>
       <c r="R10">
-        <v>0.7852076471500001</v>
+        <v>0.0714757719</v>
       </c>
       <c r="S10">
-        <v>0.000186941134305779</v>
+        <v>7.892522326141948E-05</v>
       </c>
       <c r="T10">
-        <v>0.000186941134305779</v>
+        <v>7.892522326141944E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.048275</v>
       </c>
       <c r="I11">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J11">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N11">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O11">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P11">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q11">
-        <v>0.06169340099444445</v>
+        <v>0.06321932010555555</v>
       </c>
       <c r="R11">
-        <v>0.55524060895</v>
+        <v>0.5689738809499999</v>
       </c>
       <c r="S11">
-        <v>0.0001321909046944315</v>
+        <v>0.0006282743003702357</v>
       </c>
       <c r="T11">
-        <v>0.0001321909046944315</v>
+        <v>0.0006282743003702355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>0.048275</v>
       </c>
       <c r="I12">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J12">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N12">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O12">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P12">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q12">
-        <v>0.01824059610833333</v>
+        <v>0.01232867332777778</v>
       </c>
       <c r="R12">
-        <v>0.164165364975</v>
+        <v>0.11095805995</v>
       </c>
       <c r="S12">
-        <v>3.908425962678641E-05</v>
+        <v>0.0001225224914878844</v>
       </c>
       <c r="T12">
-        <v>3.908425962678641E-05</v>
+        <v>0.0001225224914878843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>0.048275</v>
       </c>
       <c r="I13">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J13">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N13">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O13">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P13">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q13">
-        <v>0.1506606214611111</v>
+        <v>0.06245081965277777</v>
       </c>
       <c r="R13">
-        <v>1.35594559315</v>
+        <v>0.5620573768749999</v>
       </c>
       <c r="S13">
-        <v>0.0003228216232488628</v>
+        <v>0.0006206369343957677</v>
       </c>
       <c r="T13">
-        <v>0.0003228216232488628</v>
+        <v>0.0006206369343957675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H14">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I14">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J14">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N14">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O14">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P14">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q14">
-        <v>9.950568419420891</v>
+        <v>0.466744070104</v>
       </c>
       <c r="R14">
-        <v>89.55511577478802</v>
+        <v>4.200696630936</v>
       </c>
       <c r="S14">
-        <v>0.02132115624012263</v>
+        <v>0.004638507715788886</v>
       </c>
       <c r="T14">
-        <v>0.02132115624012263</v>
+        <v>0.004638507715788884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H15">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I15">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J15">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.048275</v>
       </c>
       <c r="O15">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P15">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q15">
-        <v>0.0872452941277778</v>
+        <v>0.007941752433333334</v>
       </c>
       <c r="R15">
-        <v>0.7852076471500001</v>
+        <v>0.0714757719</v>
       </c>
       <c r="S15">
-        <v>0.000186941134305779</v>
+        <v>7.892522326141948E-05</v>
       </c>
       <c r="T15">
-        <v>0.000186941134305779</v>
+        <v>7.892522326141944E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H16">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I16">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J16">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N16">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O16">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P16">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q16">
-        <v>29.39557547484846</v>
+        <v>0.243573835024</v>
       </c>
       <c r="R16">
-        <v>264.5601792736361</v>
+        <v>2.192164515216</v>
       </c>
       <c r="S16">
-        <v>0.06298611607396364</v>
+        <v>0.002420639458518169</v>
       </c>
       <c r="T16">
-        <v>0.06298611607396361</v>
+        <v>0.002420639458518169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H17">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I17">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J17">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N17">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O17">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P17">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q17">
-        <v>20.78637069612311</v>
+        <v>1.938938839378667</v>
       </c>
       <c r="R17">
-        <v>187.077336265108</v>
+        <v>17.450449554408</v>
       </c>
       <c r="S17">
-        <v>0.04453910958615776</v>
+        <v>0.01926919556770522</v>
       </c>
       <c r="T17">
-        <v>0.04453910958615775</v>
+        <v>0.01926919556770522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H18">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I18">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J18">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N18">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O18">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P18">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q18">
-        <v>6.145807919719333</v>
+        <v>0.3781208578853334</v>
       </c>
       <c r="R18">
-        <v>55.312271277474</v>
+        <v>3.403087720968</v>
       </c>
       <c r="S18">
-        <v>0.01316866789462717</v>
+        <v>0.003757769255453044</v>
       </c>
       <c r="T18">
-        <v>0.01316866789462717</v>
+        <v>0.003757769255453043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H19">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I19">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J19">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N19">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O19">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P19">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q19">
-        <v>50.76211517794179</v>
+        <v>1.915368902633333</v>
       </c>
       <c r="R19">
-        <v>456.8590366014761</v>
+        <v>17.2383201237</v>
       </c>
       <c r="S19">
-        <v>0.1087683580644116</v>
+        <v>0.01903495727640882</v>
       </c>
       <c r="T19">
-        <v>0.1087683580644116</v>
+        <v>0.01903495727640882</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H20">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I20">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J20">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N20">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O20">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P20">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q20">
-        <v>7.036303949218222</v>
+        <v>3.715457390918667</v>
       </c>
       <c r="R20">
-        <v>63.326735542964</v>
+        <v>33.439116518268</v>
       </c>
       <c r="S20">
-        <v>0.01507674029570712</v>
+        <v>0.03692425652375391</v>
       </c>
       <c r="T20">
-        <v>0.01507674029570712</v>
+        <v>0.0369242565237539</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H21">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I21">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J21">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1742,22 +1742,22 @@
         <v>0.048275</v>
       </c>
       <c r="O21">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P21">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q21">
-        <v>0.06169340099444445</v>
+        <v>0.06321932010555555</v>
       </c>
       <c r="R21">
-        <v>0.55524060895</v>
+        <v>0.5689738809499999</v>
       </c>
       <c r="S21">
-        <v>0.0001321909046944315</v>
+        <v>0.0006282743003702357</v>
       </c>
       <c r="T21">
-        <v>0.0001321909046944315</v>
+        <v>0.0006282743003702355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H22">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I22">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J22">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N22">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O22">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P22">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q22">
-        <v>20.78637069612311</v>
+        <v>1.938938839378667</v>
       </c>
       <c r="R22">
-        <v>187.077336265108</v>
+        <v>17.450449554408</v>
       </c>
       <c r="S22">
-        <v>0.04453910958615776</v>
+        <v>0.01926919556770522</v>
       </c>
       <c r="T22">
-        <v>0.04453910958615775</v>
+        <v>0.01926919556770522</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H23">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N23">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q23">
-        <v>14.69857962421378</v>
+        <v>15.43467845173377</v>
       </c>
       <c r="R23">
-        <v>132.287216617924</v>
+        <v>138.912106065604</v>
       </c>
       <c r="S23">
-        <v>0.03149475481863818</v>
+        <v>0.1533900046617303</v>
       </c>
       <c r="T23">
-        <v>0.03149475481863818</v>
+        <v>0.1533900046617303</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H24">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I24">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J24">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N24">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O24">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P24">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q24">
-        <v>4.345859524191332</v>
+        <v>3.009983470764888</v>
       </c>
       <c r="R24">
-        <v>39.112735717722</v>
+        <v>27.089851236884</v>
       </c>
       <c r="S24">
-        <v>0.009311905210566957</v>
+        <v>0.0299132489255385</v>
       </c>
       <c r="T24">
-        <v>0.009311905210566958</v>
+        <v>0.0299132489255385</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H25">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I25">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J25">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N25">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O25">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P25">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q25">
-        <v>35.89520281073644</v>
+        <v>15.24705293853889</v>
       </c>
       <c r="R25">
-        <v>323.0568252966281</v>
+        <v>137.22347644685</v>
       </c>
       <c r="S25">
-        <v>0.07691291543756269</v>
+        <v>0.151525380242529</v>
       </c>
       <c r="T25">
-        <v>0.07691291543756269</v>
+        <v>0.151525380242529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H26">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I26">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J26">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N26">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O26">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P26">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q26">
-        <v>2.080390712204666</v>
+        <v>0.7245674322253334</v>
       </c>
       <c r="R26">
-        <v>18.723516409842</v>
+        <v>6.521106890028001</v>
       </c>
       <c r="S26">
-        <v>0.004457668501514325</v>
+        <v>0.007200759131739307</v>
       </c>
       <c r="T26">
-        <v>0.004457668501514325</v>
+        <v>0.007200759131739305</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H27">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I27">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J27">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2114,22 +2114,22 @@
         <v>0.048275</v>
       </c>
       <c r="O27">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P27">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q27">
-        <v>0.01824059610833333</v>
+        <v>0.01232867332777778</v>
       </c>
       <c r="R27">
-        <v>0.164165364975</v>
+        <v>0.11095805995</v>
       </c>
       <c r="S27">
-        <v>3.908425962678641E-05</v>
+        <v>0.0001225224914878844</v>
       </c>
       <c r="T27">
-        <v>3.908425962678641E-05</v>
+        <v>0.0001225224914878843</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H28">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I28">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J28">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2170,28 +2170,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N28">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O28">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P28">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q28">
-        <v>6.145807919719333</v>
+        <v>0.3781208578853334</v>
       </c>
       <c r="R28">
-        <v>55.312271277474</v>
+        <v>3.403087720968</v>
       </c>
       <c r="S28">
-        <v>0.01316866789462717</v>
+        <v>0.003757769255453044</v>
       </c>
       <c r="T28">
-        <v>0.01316866789462717</v>
+        <v>0.003757769255453043</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H29">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I29">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J29">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N29">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O29">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P29">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q29">
-        <v>4.345859524191332</v>
+        <v>3.009983470764888</v>
       </c>
       <c r="R29">
-        <v>39.112735717722</v>
+        <v>27.089851236884</v>
       </c>
       <c r="S29">
-        <v>0.009311905210566957</v>
+        <v>0.0299132489255385</v>
       </c>
       <c r="T29">
-        <v>0.009311905210566958</v>
+        <v>0.0299132489255385</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H30">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I30">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J30">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N30">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O30">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P30">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q30">
-        <v>1.284919732848999</v>
+        <v>0.5869899086404445</v>
       </c>
       <c r="R30">
-        <v>11.564277595641</v>
+        <v>5.282909177764001</v>
       </c>
       <c r="S30">
-        <v>0.002753206975253837</v>
+        <v>0.005833512185194403</v>
       </c>
       <c r="T30">
-        <v>0.002753206975253838</v>
+        <v>0.005833512185194401</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H31">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I31">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J31">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N31">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O31">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P31">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q31">
-        <v>10.61296485755933</v>
+        <v>2.973393807094444</v>
       </c>
       <c r="R31">
-        <v>95.51668371803399</v>
+        <v>26.76054426385</v>
       </c>
       <c r="S31">
-        <v>0.02274047796679765</v>
+        <v>0.02954962044448322</v>
       </c>
       <c r="T31">
-        <v>0.02274047796679765</v>
+        <v>0.02954962044448321</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H32">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I32">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J32">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N32">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O32">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P32">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q32">
-        <v>17.18326285616756</v>
+        <v>3.670291914883333</v>
       </c>
       <c r="R32">
-        <v>154.649365705508</v>
+        <v>33.03262723395</v>
       </c>
       <c r="S32">
-        <v>0.03681870387991024</v>
+        <v>0.03647540152484521</v>
       </c>
       <c r="T32">
-        <v>0.03681870387991024</v>
+        <v>0.03647540152484521</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2462,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H33">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I33">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J33">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2486,22 +2486,22 @@
         <v>0.048275</v>
       </c>
       <c r="O33">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P33">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q33">
-        <v>0.1506606214611111</v>
+        <v>0.06245081965277777</v>
       </c>
       <c r="R33">
-        <v>1.35594559315</v>
+        <v>0.5620573768749999</v>
       </c>
       <c r="S33">
-        <v>0.0003228216232488628</v>
+        <v>0.0006206369343957677</v>
       </c>
       <c r="T33">
-        <v>0.0003228216232488628</v>
+        <v>0.0006206369343957675</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2524,16 +2524,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H34">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I34">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J34">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2542,28 +2542,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N34">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O34">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P34">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q34">
-        <v>50.76211517794179</v>
+        <v>1.915368902633333</v>
       </c>
       <c r="R34">
-        <v>456.8590366014761</v>
+        <v>17.2383201237</v>
       </c>
       <c r="S34">
-        <v>0.1087683580644116</v>
+        <v>0.01903495727640882</v>
       </c>
       <c r="T34">
-        <v>0.1087683580644116</v>
+        <v>0.01903495727640882</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H35">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I35">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J35">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N35">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O35">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P35">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q35">
-        <v>35.89520281073644</v>
+        <v>15.24705293853889</v>
       </c>
       <c r="R35">
-        <v>323.0568252966281</v>
+        <v>137.22347644685</v>
       </c>
       <c r="S35">
-        <v>0.07691291543756269</v>
+        <v>0.151525380242529</v>
       </c>
       <c r="T35">
-        <v>0.07691291543756269</v>
+        <v>0.151525380242529</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2648,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H36">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I36">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J36">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N36">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O36">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P36">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q36">
-        <v>10.61296485755933</v>
+        <v>2.973393807094444</v>
       </c>
       <c r="R36">
-        <v>95.51668371803399</v>
+        <v>26.76054426385</v>
       </c>
       <c r="S36">
-        <v>0.02274047796679765</v>
+        <v>0.02954962044448322</v>
       </c>
       <c r="T36">
-        <v>0.02274047796679765</v>
+        <v>0.02954962044448321</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2710,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="H37">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="I37">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="J37">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2728,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N37">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O37">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P37">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q37">
-        <v>87.65919005543512</v>
+        <v>15.06170822006944</v>
       </c>
       <c r="R37">
-        <v>788.9327104989161</v>
+        <v>135.5553739806249</v>
       </c>
       <c r="S37">
-        <v>0.1878279921583926</v>
+        <v>0.149683422386461</v>
       </c>
       <c r="T37">
-        <v>0.1878279921583926</v>
+        <v>0.1496834223864609</v>
       </c>
     </row>
   </sheetData>
